--- a/Excels/CharacterfulDragon_个性龙表.xlsx
+++ b/Excels/CharacterfulDragon_个性龙表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87B4CD-955A-4616-B5BD-590856D01759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26977862-59FB-4B15-9EB8-8B46F12F3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3360" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -339,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -519,7 +519,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -537,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -573,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -609,7 +609,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -663,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -705,92 +705,339 @@
         <v>23</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
